--- a/exports/appointments.xlsx
+++ b/exports/appointments.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,31 +469,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test asdfsfsdf</t>
+          <t>Μάριος Γαλατσάνος</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>test@yahoo.com</t>
+          <t>marios@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0000000000</t>
+          <t>1234567890</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mlkies</t>
+          <t>test</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-05-24 11:00:00</t>
+          <t>2023-05-26 11:30:00</t>
         </is>
       </c>
       <c r="G2" t="n">
